--- a/pred_ohlcv/54_21/2020-01-23 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 REP ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>643.213989365672</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>643.213989365672</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>621.997289365672</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>623.9766893656721</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>637.4366893656721</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>637.4366893656721</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>511.2036893656721</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>564.2036893656721</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>277.4083893656721</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>194.5886893656721</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>147.644989365672</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-67.89681063432798</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-143.564110634328</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-143.564110634328</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-141.1724106343279</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-106.4944106343279</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-106.4944106343279</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-106.4944106343279</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>300.8196732455426</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>300.1591732455426</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1578.962068361698</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 REP ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-636.3090999999998</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>643.213989365672</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>621.997289365672</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>637.4366893656721</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>637.4366893656721</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>511.2036893656721</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>564.2036893656721</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>277.4083893656721</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>194.5886893656721</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>194.5886893656721</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>194.5886893656721</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>147.644989365672</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>151.274989365672</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>17.01858936567203</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-62.98141063432797</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-63.08141063432797</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-67.89681063432798</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-143.564110634328</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-143.564110634328</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-141.1724106343279</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-106.4944106343279</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-106.4944106343279</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-106.4944106343279</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>112.2922087686571</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>107.4193087686571</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>300.8196732455426</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>300.8196732455426</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>300.1591732455426</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>300.1591732455426</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>38.75537324554261</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>31.23697324554261</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-925.9553267544575</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1551.291468361698</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1556.869768361698</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1556.869768361698</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1578.962068361698</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
